--- a/src/test/java/TestResult/TestResult.xlsx
+++ b/src/test/java/TestResult/TestResult.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="97">
   <si>
     <t>Flipkart</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Apple iPhone 12 Pro Max (Gold, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 Pro Max (Graphite, 512 GB)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -870,10 +876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>0</v>
@@ -881,10 +887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>0</v>
@@ -892,10 +898,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>0</v>
@@ -925,10 +931,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>0</v>
